--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Angpt1-Tie1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Angpt1-Tie1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -91,7 +97,7 @@
     <t>ECs</t>
   </si>
   <si>
-    <t>Neutro</t>
+    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.5229803079255</v>
+        <v>11.563232</v>
       </c>
       <c r="H2">
-        <v>11.5229803079255</v>
+        <v>34.689696</v>
       </c>
       <c r="I2">
-        <v>0.8189507990685472</v>
+        <v>0.6861949287396443</v>
       </c>
       <c r="J2">
-        <v>0.8189507990685472</v>
+        <v>0.6861949287396443</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>53.6151178875834</v>
+        <v>63.565581</v>
       </c>
       <c r="N2">
-        <v>53.6151178875834</v>
+        <v>190.696743</v>
       </c>
       <c r="O2">
-        <v>0.9921684730173854</v>
+        <v>0.9889113760447804</v>
       </c>
       <c r="P2">
-        <v>0.9921684730173854</v>
+        <v>0.9889113760447804</v>
       </c>
       <c r="Q2">
-        <v>617.8059476257278</v>
+        <v>735.023560317792</v>
       </c>
       <c r="R2">
-        <v>617.8059476257278</v>
+        <v>6615.212042860127</v>
       </c>
       <c r="S2">
-        <v>0.8125371637882081</v>
+        <v>0.6785859712148716</v>
       </c>
       <c r="T2">
-        <v>0.8125371637882081</v>
+        <v>0.6785859712148716</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.5229803079255</v>
+        <v>11.563232</v>
       </c>
       <c r="H3">
-        <v>11.5229803079255</v>
+        <v>34.689696</v>
       </c>
       <c r="I3">
-        <v>0.8189507990685472</v>
+        <v>0.6861949287396443</v>
       </c>
       <c r="J3">
-        <v>0.8189507990685472</v>
+        <v>0.6861949287396443</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.141152740756</v>
+        <v>0.03515933333333333</v>
       </c>
       <c r="N3">
-        <v>0.141152740756</v>
+        <v>0.105478</v>
       </c>
       <c r="O3">
-        <v>0.002612086008124448</v>
+        <v>0.0005469857139744193</v>
       </c>
       <c r="P3">
-        <v>0.002612086008124448</v>
+        <v>0.0005469857139744193</v>
       </c>
       <c r="Q3">
-        <v>1.626500252141101</v>
+        <v>0.4065555282986666</v>
       </c>
       <c r="R3">
-        <v>1.626500252141101</v>
+        <v>3.658999754688</v>
       </c>
       <c r="S3">
-        <v>0.002139169923589288</v>
+        <v>0.0003753388230222801</v>
       </c>
       <c r="T3">
-        <v>0.002139169923589288</v>
+        <v>0.0003753388230222801</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,185 +652,185 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.5229803079255</v>
+        <v>11.563232</v>
       </c>
       <c r="H4">
-        <v>11.5229803079255</v>
+        <v>34.689696</v>
       </c>
       <c r="I4">
-        <v>0.8189507990685472</v>
+        <v>0.6861949287396443</v>
       </c>
       <c r="J4">
-        <v>0.8189507990685472</v>
+        <v>0.6861949287396443</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.282049823961368</v>
+        <v>0.03516833333333334</v>
       </c>
       <c r="N4">
-        <v>0.282049823961368</v>
+        <v>0.105505</v>
       </c>
       <c r="O4">
-        <v>0.005219440974490156</v>
+        <v>0.0005471257300372695</v>
       </c>
       <c r="P4">
-        <v>0.005219440974490156</v>
+        <v>0.0005471257300372695</v>
       </c>
       <c r="Q4">
-        <v>3.250054567360698</v>
+        <v>0.4066595973866667</v>
       </c>
       <c r="R4">
-        <v>3.250054567360698</v>
+        <v>3.65993637648</v>
       </c>
       <c r="S4">
-        <v>0.004274465356749829</v>
+        <v>0.00037543490133455</v>
       </c>
       <c r="T4">
-        <v>0.004274465356749829</v>
+        <v>0.00037543490133455</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.54743798952464</v>
+        <v>11.563232</v>
       </c>
       <c r="H5">
-        <v>2.54743798952464</v>
+        <v>34.689696</v>
       </c>
       <c r="I5">
-        <v>0.1810492009314527</v>
+        <v>0.6861949287396443</v>
       </c>
       <c r="J5">
-        <v>0.1810492009314527</v>
+        <v>0.6861949287396443</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>53.6151178875834</v>
+        <v>0.1628933333333333</v>
       </c>
       <c r="N5">
-        <v>53.6151178875834</v>
+        <v>0.48868</v>
       </c>
       <c r="O5">
-        <v>0.9921684730173854</v>
+        <v>0.00253418702198581</v>
       </c>
       <c r="P5">
-        <v>0.9921684730173854</v>
+        <v>0.00253418702198581</v>
       </c>
       <c r="Q5">
-        <v>136.581188119672</v>
+        <v>1.883573404586667</v>
       </c>
       <c r="R5">
-        <v>136.581188119672</v>
+        <v>16.95216064128</v>
       </c>
       <c r="S5">
-        <v>0.1796313092291772</v>
+        <v>0.001738946282964484</v>
       </c>
       <c r="T5">
-        <v>0.1796313092291772</v>
+        <v>0.001738946282964484</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.54743798952464</v>
+        <v>11.563232</v>
       </c>
       <c r="H6">
-        <v>2.54743798952464</v>
+        <v>34.689696</v>
       </c>
       <c r="I6">
-        <v>0.1810492009314527</v>
+        <v>0.6861949287396443</v>
       </c>
       <c r="J6">
-        <v>0.1810492009314527</v>
+        <v>0.6861949287396443</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.141152740756</v>
+        <v>0.4795373333333333</v>
       </c>
       <c r="N6">
-        <v>0.141152740756</v>
+        <v>1.438612</v>
       </c>
       <c r="O6">
-        <v>0.002612086008124448</v>
+        <v>0.007460325489222087</v>
       </c>
       <c r="P6">
-        <v>0.002612086008124448</v>
+        <v>0.007460325489222088</v>
       </c>
       <c r="Q6">
-        <v>0.3595778541273574</v>
+        <v>5.545001437994666</v>
       </c>
       <c r="R6">
-        <v>0.3595778541273574</v>
+        <v>49.90501294195199</v>
       </c>
       <c r="S6">
-        <v>0.0004729160845351595</v>
+        <v>0.005119237517451302</v>
       </c>
       <c r="T6">
-        <v>0.0004729160845351595</v>
+        <v>0.005119237517451302</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +838,929 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.005854666666666667</v>
+      </c>
+      <c r="H7">
+        <v>0.017564</v>
+      </c>
+      <c r="I7">
+        <v>0.0003474324977763747</v>
+      </c>
+      <c r="J7">
+        <v>0.0003474324977763746</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>63.565581</v>
+      </c>
+      <c r="N7">
+        <v>190.696743</v>
+      </c>
+      <c r="O7">
+        <v>0.9889113760447804</v>
+      </c>
+      <c r="P7">
+        <v>0.9889113760447804</v>
+      </c>
+      <c r="Q7">
+        <v>0.372155288228</v>
+      </c>
+      <c r="R7">
+        <v>3.349397594052</v>
+      </c>
+      <c r="S7">
+        <v>0.0003435799494587098</v>
+      </c>
+      <c r="T7">
+        <v>0.0003435799494587098</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.005854666666666667</v>
+      </c>
+      <c r="H8">
+        <v>0.017564</v>
+      </c>
+      <c r="I8">
+        <v>0.0003474324977763747</v>
+      </c>
+      <c r="J8">
+        <v>0.0003474324977763746</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.03515933333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.105478</v>
+      </c>
+      <c r="O8">
+        <v>0.0005469857139744193</v>
+      </c>
+      <c r="P8">
+        <v>0.0005469857139744193</v>
+      </c>
+      <c r="Q8">
+        <v>0.0002058461768888889</v>
+      </c>
+      <c r="R8">
+        <v>0.001852615592</v>
+      </c>
+      <c r="S8">
+        <v>1.900406128541262E-07</v>
+      </c>
+      <c r="T8">
+        <v>1.900406128541262E-07</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.005854666666666667</v>
+      </c>
+      <c r="H9">
+        <v>0.017564</v>
+      </c>
+      <c r="I9">
+        <v>0.0003474324977763747</v>
+      </c>
+      <c r="J9">
+        <v>0.0003474324977763746</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.03516833333333334</v>
+      </c>
+      <c r="N9">
+        <v>0.105505</v>
+      </c>
+      <c r="O9">
+        <v>0.0005471257300372695</v>
+      </c>
+      <c r="P9">
+        <v>0.0005471257300372695</v>
+      </c>
+      <c r="Q9">
+        <v>0.0002058988688888889</v>
+      </c>
+      <c r="R9">
+        <v>0.00185308982</v>
+      </c>
+      <c r="S9">
+        <v>1.90089258984571E-07</v>
+      </c>
+      <c r="T9">
+        <v>1.90089258984571E-07</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.005854666666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.017564</v>
+      </c>
+      <c r="I10">
+        <v>0.0003474324977763747</v>
+      </c>
+      <c r="J10">
+        <v>0.0003474324977763746</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.1628933333333333</v>
+      </c>
+      <c r="N10">
+        <v>0.48868</v>
+      </c>
+      <c r="O10">
+        <v>0.00253418702198581</v>
+      </c>
+      <c r="P10">
+        <v>0.00253418702198581</v>
+      </c>
+      <c r="Q10">
+        <v>0.0009536861688888889</v>
+      </c>
+      <c r="R10">
+        <v>0.00858317552</v>
+      </c>
+      <c r="S10">
+        <v>8.804589268810024E-07</v>
+      </c>
+      <c r="T10">
+        <v>8.804589268810023E-07</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>2.54743798952464</v>
-      </c>
-      <c r="H7">
-        <v>2.54743798952464</v>
-      </c>
-      <c r="I7">
-        <v>0.1810492009314527</v>
-      </c>
-      <c r="J7">
-        <v>0.1810492009314527</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.282049823961368</v>
-      </c>
-      <c r="N7">
-        <v>0.282049823961368</v>
-      </c>
-      <c r="O7">
-        <v>0.005219440974490156</v>
-      </c>
-      <c r="P7">
-        <v>0.005219440974490156</v>
-      </c>
-      <c r="Q7">
-        <v>0.7185044364979259</v>
-      </c>
-      <c r="R7">
-        <v>0.7185044364979259</v>
-      </c>
-      <c r="S7">
-        <v>0.0009449756177403257</v>
-      </c>
-      <c r="T7">
-        <v>0.0009449756177403257</v>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.005854666666666667</v>
+      </c>
+      <c r="H11">
+        <v>0.017564</v>
+      </c>
+      <c r="I11">
+        <v>0.0003474324977763747</v>
+      </c>
+      <c r="J11">
+        <v>0.0003474324977763746</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.4795373333333333</v>
+      </c>
+      <c r="N11">
+        <v>1.438612</v>
+      </c>
+      <c r="O11">
+        <v>0.007460325489222087</v>
+      </c>
+      <c r="P11">
+        <v>0.007460325489222088</v>
+      </c>
+      <c r="Q11">
+        <v>0.002807531240888889</v>
+      </c>
+      <c r="R11">
+        <v>0.025267781168</v>
+      </c>
+      <c r="S11">
+        <v>2.591959518945184E-06</v>
+      </c>
+      <c r="T11">
+        <v>2.591959518945184E-06</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.04835900000000001</v>
+      </c>
+      <c r="H12">
+        <v>0.145077</v>
+      </c>
+      <c r="I12">
+        <v>0.002869759990884942</v>
+      </c>
+      <c r="J12">
+        <v>0.002869759990884941</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>63.565581</v>
+      </c>
+      <c r="N12">
+        <v>190.696743</v>
+      </c>
+      <c r="O12">
+        <v>0.9889113760447804</v>
+      </c>
+      <c r="P12">
+        <v>0.9889113760447804</v>
+      </c>
+      <c r="Q12">
+        <v>3.073967931579</v>
+      </c>
+      <c r="R12">
+        <v>27.665711384211</v>
+      </c>
+      <c r="S12">
+        <v>0.002837938301504284</v>
+      </c>
+      <c r="T12">
+        <v>0.002837938301504284</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.04835900000000001</v>
+      </c>
+      <c r="H13">
+        <v>0.145077</v>
+      </c>
+      <c r="I13">
+        <v>0.002869759990884942</v>
+      </c>
+      <c r="J13">
+        <v>0.002869759990884941</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.03515933333333333</v>
+      </c>
+      <c r="N13">
+        <v>0.105478</v>
+      </c>
+      <c r="O13">
+        <v>0.0005469857139744193</v>
+      </c>
+      <c r="P13">
+        <v>0.0005469857139744193</v>
+      </c>
+      <c r="Q13">
+        <v>0.001700270200666667</v>
+      </c>
+      <c r="R13">
+        <v>0.015302431806</v>
+      </c>
+      <c r="S13">
+        <v>1.569717717549423E-06</v>
+      </c>
+      <c r="T13">
+        <v>1.569717717549423E-06</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.04835900000000001</v>
+      </c>
+      <c r="H14">
+        <v>0.145077</v>
+      </c>
+      <c r="I14">
+        <v>0.002869759990884942</v>
+      </c>
+      <c r="J14">
+        <v>0.002869759990884941</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.03516833333333334</v>
+      </c>
+      <c r="N14">
+        <v>0.105505</v>
+      </c>
+      <c r="O14">
+        <v>0.0005471257300372695</v>
+      </c>
+      <c r="P14">
+        <v>0.0005471257300372695</v>
+      </c>
+      <c r="Q14">
+        <v>0.001700705431666667</v>
+      </c>
+      <c r="R14">
+        <v>0.015306348885</v>
+      </c>
+      <c r="S14">
+        <v>1.570119530044672E-06</v>
+      </c>
+      <c r="T14">
+        <v>1.570119530044672E-06</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.04835900000000001</v>
+      </c>
+      <c r="H15">
+        <v>0.145077</v>
+      </c>
+      <c r="I15">
+        <v>0.002869759990884942</v>
+      </c>
+      <c r="J15">
+        <v>0.002869759990884941</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.1628933333333333</v>
+      </c>
+      <c r="N15">
+        <v>0.48868</v>
+      </c>
+      <c r="O15">
+        <v>0.00253418702198581</v>
+      </c>
+      <c r="P15">
+        <v>0.00253418702198581</v>
+      </c>
+      <c r="Q15">
+        <v>0.007877358706666667</v>
+      </c>
+      <c r="R15">
+        <v>0.07089622836000001</v>
+      </c>
+      <c r="S15">
+        <v>7.272508525114735E-06</v>
+      </c>
+      <c r="T15">
+        <v>7.272508525114734E-06</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.04835900000000001</v>
+      </c>
+      <c r="H16">
+        <v>0.145077</v>
+      </c>
+      <c r="I16">
+        <v>0.002869759990884942</v>
+      </c>
+      <c r="J16">
+        <v>0.002869759990884941</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.4795373333333333</v>
+      </c>
+      <c r="N16">
+        <v>1.438612</v>
+      </c>
+      <c r="O16">
+        <v>0.007460325489222087</v>
+      </c>
+      <c r="P16">
+        <v>0.007460325489222088</v>
+      </c>
+      <c r="Q16">
+        <v>0.02318994590266667</v>
+      </c>
+      <c r="R16">
+        <v>0.208709513124</v>
+      </c>
+      <c r="S16">
+        <v>2.140934360794867E-05</v>
+      </c>
+      <c r="T16">
+        <v>2.140934360794867E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>5.233789333333334</v>
+      </c>
+      <c r="H17">
+        <v>15.701368</v>
+      </c>
+      <c r="I17">
+        <v>0.3105878787716944</v>
+      </c>
+      <c r="J17">
+        <v>0.3105878787716944</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>63.565581</v>
+      </c>
+      <c r="N17">
+        <v>190.696743</v>
+      </c>
+      <c r="O17">
+        <v>0.9889113760447804</v>
+      </c>
+      <c r="P17">
+        <v>0.9889113760447804</v>
+      </c>
+      <c r="Q17">
+        <v>332.688859804936</v>
+      </c>
+      <c r="R17">
+        <v>2994.199738244424</v>
+      </c>
+      <c r="S17">
+        <v>0.3071438865789458</v>
+      </c>
+      <c r="T17">
+        <v>0.3071438865789458</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>5.233789333333334</v>
+      </c>
+      <c r="H18">
+        <v>15.701368</v>
+      </c>
+      <c r="I18">
+        <v>0.3105878787716944</v>
+      </c>
+      <c r="J18">
+        <v>0.3105878787716944</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.03515933333333333</v>
+      </c>
+      <c r="N18">
+        <v>0.105478</v>
+      </c>
+      <c r="O18">
+        <v>0.0005469857139744193</v>
+      </c>
+      <c r="P18">
+        <v>0.0005469857139744193</v>
+      </c>
+      <c r="Q18">
+        <v>0.1840165437671111</v>
+      </c>
+      <c r="R18">
+        <v>1.656148893904</v>
+      </c>
+      <c r="S18">
+        <v>0.0001698871326217357</v>
+      </c>
+      <c r="T18">
+        <v>0.0001698871326217357</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>5.233789333333334</v>
+      </c>
+      <c r="H19">
+        <v>15.701368</v>
+      </c>
+      <c r="I19">
+        <v>0.3105878787716944</v>
+      </c>
+      <c r="J19">
+        <v>0.3105878787716944</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.03516833333333334</v>
+      </c>
+      <c r="N19">
+        <v>0.105505</v>
+      </c>
+      <c r="O19">
+        <v>0.0005471257300372695</v>
+      </c>
+      <c r="P19">
+        <v>0.0005471257300372695</v>
+      </c>
+      <c r="Q19">
+        <v>0.1840636478711112</v>
+      </c>
+      <c r="R19">
+        <v>1.65657283084</v>
+      </c>
+      <c r="S19">
+        <v>0.0001699306199136903</v>
+      </c>
+      <c r="T19">
+        <v>0.0001699306199136903</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>5.233789333333334</v>
+      </c>
+      <c r="H20">
+        <v>15.701368</v>
+      </c>
+      <c r="I20">
+        <v>0.3105878787716944</v>
+      </c>
+      <c r="J20">
+        <v>0.3105878787716944</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.1628933333333333</v>
+      </c>
+      <c r="N20">
+        <v>0.48868</v>
+      </c>
+      <c r="O20">
+        <v>0.00253418702198581</v>
+      </c>
+      <c r="P20">
+        <v>0.00253418702198581</v>
+      </c>
+      <c r="Q20">
+        <v>0.8525493904711112</v>
+      </c>
+      <c r="R20">
+        <v>7.672944514240001</v>
+      </c>
+      <c r="S20">
+        <v>0.0007870877715693299</v>
+      </c>
+      <c r="T20">
+        <v>0.0007870877715693299</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>5.233789333333334</v>
+      </c>
+      <c r="H21">
+        <v>15.701368</v>
+      </c>
+      <c r="I21">
+        <v>0.3105878787716944</v>
+      </c>
+      <c r="J21">
+        <v>0.3105878787716944</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.4795373333333333</v>
+      </c>
+      <c r="N21">
+        <v>1.438612</v>
+      </c>
+      <c r="O21">
+        <v>0.007460325489222087</v>
+      </c>
+      <c r="P21">
+        <v>0.007460325489222088</v>
+      </c>
+      <c r="Q21">
+        <v>2.509797380135111</v>
+      </c>
+      <c r="R21">
+        <v>22.588176421216</v>
+      </c>
+      <c r="S21">
+        <v>0.002317086668643891</v>
+      </c>
+      <c r="T21">
+        <v>0.002317086668643891</v>
       </c>
     </row>
   </sheetData>
